--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -40,34 +40,34 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
+    <t>dangerous</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>crazy</t>
+    <t>bad</t>
   </si>
   <si>
     <t>negative</t>
@@ -76,22 +76,22 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>important</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
   </si>
   <si>
     <t>social</t>
@@ -524,13 +524,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>19</v>
@@ -574,13 +574,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -592,19 +592,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K4">
-        <v>0.8666666666666667</v>
+        <v>0.86</v>
       </c>
       <c r="L4">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -624,13 +624,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9242424242424242</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -642,19 +642,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K5">
-        <v>0.82</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -674,13 +674,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
@@ -724,13 +724,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8653846153846154</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C7">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -742,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K7">
-        <v>0.5666666666666667</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -774,13 +774,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K8">
-        <v>0.4933333333333333</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L8">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -824,37 +824,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6842105263157895</v>
+        <v>0.675</v>
       </c>
       <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>13</v>
-      </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K9">
-        <v>0.4827586206896552</v>
+        <v>0.55</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -874,13 +874,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4782608695652174</v>
+        <v>0.4420289855072464</v>
       </c>
       <c r="C10">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D10">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -892,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K10">
-        <v>0.04462659380692167</v>
+        <v>0.04189435336976321</v>
       </c>
       <c r="L10">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1049</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -924,13 +924,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3829787234042553</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -950,7 +950,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3428571428571429</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
